--- a/2022/Symphony/JULY/03.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/03.07.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="232">
   <si>
     <t>Date</t>
   </si>
@@ -706,9 +706,6 @@
     <t>03.07.2022</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>Date:03.07.2022</t>
   </si>
   <si>
@@ -728,6 +725,12 @@
   </si>
   <si>
     <t>J=Molla Mobile Center</t>
+  </si>
+  <si>
+    <t>04.07.2022</t>
+  </si>
+  <si>
+    <t>Eid Bonus</t>
   </si>
 </sst>
 </file>
@@ -3213,6 +3216,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3244,12 +3253,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6338,67 +6341,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="371" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="369"/>
-      <c r="N1" s="369"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="369"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
+      <c r="O1" s="371"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="372" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="370"/>
-      <c r="J2" s="370"/>
-      <c r="K2" s="370"/>
-      <c r="L2" s="370"/>
-      <c r="M2" s="370"/>
-      <c r="N2" s="370"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="370"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
+      <c r="J2" s="372"/>
+      <c r="K2" s="372"/>
+      <c r="L2" s="372"/>
+      <c r="M2" s="372"/>
+      <c r="N2" s="372"/>
+      <c r="O2" s="372"/>
+      <c r="P2" s="372"/>
+      <c r="Q2" s="372"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="373" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
-      <c r="I3" s="372"/>
-      <c r="J3" s="372"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="372"/>
-      <c r="P3" s="372"/>
-      <c r="Q3" s="373"/>
+      <c r="B3" s="374"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
+      <c r="H3" s="374"/>
+      <c r="I3" s="374"/>
+      <c r="J3" s="374"/>
+      <c r="K3" s="374"/>
+      <c r="L3" s="374"/>
+      <c r="M3" s="374"/>
+      <c r="N3" s="374"/>
+      <c r="O3" s="374"/>
+      <c r="P3" s="374"/>
+      <c r="Q3" s="375"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6407,49 +6410,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="374" t="s">
+      <c r="A4" s="376" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="376" t="s">
+      <c r="B4" s="378" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="378" t="s">
+      <c r="C4" s="367" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="378" t="s">
+      <c r="D4" s="367" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="367" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="367" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="378" t="s">
+      <c r="G4" s="367" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="378" t="s">
+      <c r="H4" s="367" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="378" t="s">
+      <c r="I4" s="367" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="378" t="s">
+      <c r="J4" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="378" t="s">
+      <c r="K4" s="367" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="378" t="s">
+      <c r="L4" s="367" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="378" t="s">
+      <c r="M4" s="367" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="378" t="s">
+      <c r="N4" s="367" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="367" t="s">
+      <c r="O4" s="369" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="380" t="s">
@@ -6465,21 +6468,21 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="375"/>
-      <c r="B5" s="377"/>
-      <c r="C5" s="379"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="379"/>
-      <c r="M5" s="379"/>
-      <c r="N5" s="379"/>
-      <c r="O5" s="368"/>
+      <c r="A5" s="377"/>
+      <c r="B5" s="379"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="368"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="368"/>
+      <c r="M5" s="368"/>
+      <c r="N5" s="368"/>
+      <c r="O5" s="370"/>
       <c r="P5" s="381"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
@@ -9391,6 +9394,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9407,9 +9413,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9422,8 +9425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9983,14 +9986,14 @@
         <v>632240</v>
       </c>
       <c r="C6" s="52">
-        <v>559920</v>
+        <v>558320</v>
       </c>
       <c r="D6" s="49">
         <v>2150</v>
       </c>
       <c r="E6" s="49">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>562070</v>
+        <v>560470</v>
       </c>
       <c r="F6" s="226"/>
       <c r="G6" s="238"/>
@@ -12747,7 +12750,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>1333720</v>
+        <v>1332120</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -12755,11 +12758,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>1337750</v>
+        <v>1336150</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>305390</v>
+        <v>306990</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -13394,10 +13397,10 @@
         <v>113</v>
       </c>
       <c r="D39" s="206">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E39" s="175" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="138"/>
@@ -13500,7 +13503,7 @@
         <v>142</v>
       </c>
       <c r="C40" s="118" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D40" s="206">
         <v>4000</v>
@@ -16083,7 +16086,7 @@
         <v>66</v>
       </c>
       <c r="D62" s="320">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="E62" s="340" t="s">
         <v>166</v>
@@ -18697,7 +18700,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="343" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84" s="344">
         <v>1707479778</v>
@@ -19041,7 +19044,7 @@
         <v>116</v>
       </c>
       <c r="B87" s="352" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C87" s="344"/>
       <c r="D87" s="345">
@@ -19151,7 +19154,7 @@
         <v>116</v>
       </c>
       <c r="B88" s="354" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="344"/>
       <c r="D88" s="345">
@@ -22344,7 +22347,7 @@
       <c r="C119" s="394"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>2965480</v>
+        <v>2967080</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22551,7 +22554,7 @@
       <c r="C121" s="383"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>2965480</v>
+        <v>2967080</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -33784,7 +33787,7 @@
   </sheetPr>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -33827,7 +33830,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="401" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="402"/>
       <c r="C3" s="402"/>
@@ -34630,7 +34633,7 @@
     </row>
     <row r="29" spans="1:25" ht="21.75">
       <c r="A29" s="246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="120">
         <v>18000</v>
@@ -34687,14 +34690,14 @@
     </row>
     <row r="31" spans="1:25" ht="21.75">
       <c r="A31" s="246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="120">
         <v>15000</v>
       </c>
       <c r="C31" s="121"/>
       <c r="D31" s="261" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="262">
         <v>35000</v>
